--- a/Deep learning syllabus.xlsx
+++ b/Deep learning syllabus.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/human/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/human/Dropbox/CPSLAB/Presentations/2016-08-06 FastCampus DeepLearning/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="1380" windowWidth="29540" windowHeight="20600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="23460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -912,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
